--- a/Team-Data/2013-14/2-6-2013-14.xlsx
+++ b/Team-Data/2013-14/2-6-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -786,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="AR2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -965,7 +1032,7 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>14</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -1030,58 +1097,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="n">
         <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>0.468</v>
+        <v>0.457</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="J4" t="n">
-        <v>78.5</v>
+        <v>78.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="N4" t="n">
         <v>0.37</v>
       </c>
       <c r="O4" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="P4" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R4" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="S4" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T4" t="n">
-        <v>39.2</v>
+        <v>38.9</v>
       </c>
       <c r="U4" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
         <v>14.6</v>
@@ -1096,25 +1163,25 @@
         <v>4</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.4</v>
+        <v>-2.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>18</v>
@@ -1123,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
@@ -1135,13 +1202,13 @@
         <v>14</v>
       </c>
       <c r="AM4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN4" t="n">
         <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP4" t="n">
         <v>8</v>
@@ -1150,16 +1217,16 @@
         <v>10</v>
       </c>
       <c r="AR4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
         <v>11</v>
@@ -1171,19 +1238,19 @@
         <v>24</v>
       </c>
       <c r="AY4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ4" t="n">
         <v>26</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1372,7 @@
         <v>14</v>
       </c>
       <c r="AI5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
         <v>25</v>
@@ -1365,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="BC5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>48.8</v>
@@ -1418,10 +1485,10 @@
         <v>0.422</v>
       </c>
       <c r="L6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M6" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="N6" t="n">
         <v>0.335</v>
@@ -1430,13 +1497,13 @@
         <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.768</v>
+        <v>0.765</v>
       </c>
       <c r="R6" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
         <v>32.5</v>
@@ -1448,40 +1515,40 @@
         <v>22</v>
       </c>
       <c r="V6" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
         <v>6.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>2</v>
@@ -1490,7 +1557,7 @@
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1511,7 +1578,7 @@
         <v>13</v>
       </c>
       <c r="AQ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR6" t="n">
         <v>7</v>
@@ -1541,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB6" t="n">
         <v>30</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>26</v>
@@ -1666,7 +1733,7 @@
         <v>27</v>
       </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1906,7 @@
         <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2118,7 @@
         <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
         <v>6</v>
@@ -2087,10 +2154,10 @@
         <v>29</v>
       </c>
       <c r="BA9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC9" t="n">
         <v>14</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.592</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2322,7 +2389,7 @@
         <v>38.8</v>
       </c>
       <c r="J11" t="n">
-        <v>84.90000000000001</v>
+        <v>85</v>
       </c>
       <c r="K11" t="n">
         <v>0.457</v>
@@ -2331,16 +2398,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.382</v>
+        <v>0.38</v>
       </c>
       <c r="O11" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P11" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q11" t="n">
         <v>0.738</v>
@@ -2349,16 +2416,16 @@
         <v>11.2</v>
       </c>
       <c r="S11" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="T11" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="U11" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V11" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W11" t="n">
         <v>7.8</v>
@@ -2370,19 +2437,19 @@
         <v>4.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2403,7 +2470,7 @@
         <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL11" t="n">
         <v>5</v>
@@ -2418,7 +2485,7 @@
         <v>25</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>23</v>
@@ -2457,7 +2524,7 @@
         <v>11</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>18</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2764,7 +2831,7 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK13" t="n">
         <v>12</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3158,10 +3225,10 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
         <v>18</v>
@@ -3173,7 +3240,7 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3313,7 +3380,7 @@
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3483,7 +3550,7 @@
         <v>3</v>
       </c>
       <c r="AG17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="n">
         <v>8</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3689,7 +3756,7 @@
         <v>20</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP18" t="n">
         <v>28</v>
@@ -3707,7 +3774,7 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>4.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>24</v>
@@ -3913,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="BC19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>-1.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4247,7 +4314,7 @@
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT21" t="n">
         <v>27</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4651,7 @@
         <v>22</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
         <v>19</v>
@@ -4608,7 +4675,7 @@
         <v>14</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
         <v>9</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -4775,7 +4842,7 @@
         <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>3.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
@@ -4951,7 +5018,7 @@
         <v>9</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>4</v>
@@ -4999,7 +5066,7 @@
         <v>22</v>
       </c>
       <c r="BA25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -5112,13 +5179,13 @@
         <v>4.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
       </c>
       <c r="AF26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" t="n">
         <v>36</v>
       </c>
       <c r="F28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" t="n">
-        <v>0.72</v>
+        <v>0.735</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>40.3</v>
+        <v>40.5</v>
       </c>
       <c r="J28" t="n">
-        <v>82.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.49</v>
+        <v>0.491</v>
       </c>
       <c r="L28" t="n">
         <v>8.1</v>
@@ -5428,28 +5495,28 @@
         <v>20.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O28" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="P28" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
         <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U28" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="V28" t="n">
         <v>14.7</v>
@@ -5458,49 +5525,49 @@
         <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z28" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.9</v>
+        <v>104.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
       </c>
       <c r="AF28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM28" t="n">
         <v>17</v>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP28" t="n">
         <v>30</v>
@@ -5518,13 +5585,13 @@
         <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5536,7 +5603,7 @@
         <v>16</v>
       </c>
       <c r="AX28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY28" t="n">
         <v>17</v>
@@ -5548,7 +5615,7 @@
         <v>25</v>
       </c>
       <c r="BB28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5709,7 +5776,7 @@
         <v>13</v>
       </c>
       <c r="AU29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5876,7 +5943,7 @@
         <v>23</v>
       </c>
       <c r="AP30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6085,7 +6152,7 @@
         <v>14</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-6-2013-14</t>
+          <t>2014-02-06</t>
         </is>
       </c>
     </row>
